--- a/Nevada/AggregatedAmounts/NV_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/AggregatedAmounts/NV_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00160C1A-A70C-4F9E-891C-BB207679799D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5A2D4-229B-49F9-801C-5E7E93128D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12120" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ReportingUnits" sheetId="4" r:id="rId6"/>
     <sheet name="AggregatedAmounts" sheetId="5" r:id="rId7"/>
     <sheet name="BenUse" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -738,9 +739,6 @@
     <t>Nevada Division of Water Resources</t>
   </si>
   <si>
-    <t>NVDWR</t>
-  </si>
-  <si>
     <t>bmcmenamy@water.nv.gov</t>
   </si>
   <si>
@@ -759,9 +757,6 @@
     <t>http://water.nv.gov/index.aspx</t>
   </si>
   <si>
-    <t>NVDWR_Water Use</t>
-  </si>
-  <si>
     <t>Nevada Pumpdage</t>
   </si>
   <si>
@@ -769,9 +764,6 @@
   </si>
   <si>
     <t>Withdrawal</t>
-  </si>
-  <si>
-    <t>NVDWR_Withdrawal</t>
   </si>
   <si>
     <t>COM - Commercial</t>
@@ -851,6 +843,118 @@
   <si>
     <t>Year (only have 2015 and 2017 data).</t>
   </si>
+  <si>
+    <t>NVag_V1</t>
+  </si>
+  <si>
+    <t>NVag_V2</t>
+  </si>
+  <si>
+    <t>NVag_V3</t>
+  </si>
+  <si>
+    <t>NVag_V4</t>
+  </si>
+  <si>
+    <t>NVag_V5</t>
+  </si>
+  <si>
+    <t>NVag_V6</t>
+  </si>
+  <si>
+    <t>NVag_V7</t>
+  </si>
+  <si>
+    <t>NVag_V8</t>
+  </si>
+  <si>
+    <t>NVag_V9</t>
+  </si>
+  <si>
+    <t>NVag_V10</t>
+  </si>
+  <si>
+    <t>NVag_V11</t>
+  </si>
+  <si>
+    <t>NVag_V12</t>
+  </si>
+  <si>
+    <t>NVag_V13</t>
+  </si>
+  <si>
+    <t>NVag_V14</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Commercial_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Construction_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Domestic_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Environmental_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Industrial_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Irrigation_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Mining and Milling_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Municipal_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Unspecified_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Power_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Quasi-Municipal_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Recreational_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Stockwater_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Wildlife_Groundwater</t>
+  </si>
+  <si>
+    <t>Withdrawal_Annual_Commercial_Groundwater
+Withdrawal_Annual_Construction_Groundwater
+Withdrawal_Annual_Domestic_Groundwater
+Withdrawal_Annual_Environmental_Groundwater
+Withdrawal_Annual_Industrial_Groundwater
+Withdrawal_Annual_Irrigation_Groundwater
+Withdrawal_Annual_Mining and Milling_Groundwater
+Withdrawal_Annual_Municipal_Groundwater
+Withdrawal_Annual_Power_Groundwater
+Withdrawal_Annual_Quasi-Municipal_Groundwater
+Withdrawal_Annual_Recreational_Groundwater
+Withdrawal_Annual_Stockwater_Groundwater
+Withdrawal_Annual_Unspecified_Groundwater
+Withdrawal_Annual_Wildlife_Groundwater</t>
+  </si>
+  <si>
+    <t>NVag_M1</t>
+  </si>
+  <si>
+    <t>NVag_V + counter</t>
+  </si>
+  <si>
+    <t>NVag_O1</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
 </sst>
 </file>
 
@@ -859,7 +963,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,6 +1080,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -991,7 +1102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1219,12 +1330,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,6 +1682,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1873,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1906,7 +2038,7 @@
         <v>212</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1966,7 +2098,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -2229,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F9" s="86" t="s">
         <v>11</v>
@@ -2259,7 +2391,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F10" s="86" t="s">
         <v>11</v>
@@ -2291,7 +2423,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" s="86" t="s">
         <v>11</v>
@@ -2357,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2367,7 +2499,7 @@
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2455,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="34"/>
@@ -2511,7 +2643,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="95"/>
@@ -2679,7 +2811,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="95"/>
@@ -2693,7 +2825,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="168" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>153</v>
       </c>
@@ -2706,8 +2838,8 @@
       <c r="D13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>238</v>
+      <c r="E13" s="113" t="s">
+        <v>291</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="95"/>
@@ -2735,7 +2867,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2838,7 +2970,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="85"/>
@@ -2866,7 +2998,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="112" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="35"/>
@@ -2894,7 +3026,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="35"/>
@@ -2922,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="35"/>
@@ -2978,7 +3110,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="35"/>
@@ -3006,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F10" s="86"/>
       <c r="G10" s="35"/>
@@ -3034,7 +3166,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F11" s="86"/>
       <c r="G11" s="35"/>
@@ -3222,7 +3354,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
@@ -3414,7 +3546,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F10" s="86" t="s">
         <v>11</v>
@@ -3560,7 +3692,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
@@ -3644,13 +3776,13 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G7" s="107" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H7" s="94" t="s">
         <v>11</v>
@@ -3676,13 +3808,13 @@
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G8" s="107" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H8" s="94" t="s">
         <v>11</v>
@@ -3736,7 +3868,7 @@
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F10" s="110"/>
       <c r="G10" s="22"/>
@@ -3904,8 +4036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E07544-54C6-4298-B1F4-AA27E9BE2694}">
   <dimension ref="A1:K16431"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4132,7 +4264,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="105" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="39"/>
@@ -4161,7 +4293,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="105" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="22"/>
@@ -4217,7 +4349,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="39"/>
@@ -4304,7 +4436,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="49"/>
@@ -4332,7 +4464,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="25"/>
@@ -4772,7 +4904,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>11</v>
@@ -54114,78 +54246,373 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D0D1AA-FF77-4D57-9EDD-686A66EF2813}">
+  <dimension ref="A2:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.33203125" customWidth="1"/>
+    <col min="9" max="9" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" t="str">
+        <f>""""&amp;E2&amp;""""&amp;","</f>
+        <v>"Withdrawal_Annual_Commercial_Groundwater",</v>
+      </c>
+      <c r="J2" t="str">
+        <f>""""&amp;F2&amp;""""&amp;","</f>
+        <v>"NVag_V1",</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:J15" si="0">""""&amp;E3&amp;""""&amp;","</f>
+        <v>"Withdrawal_Annual_Construction_Groundwater",</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V2",</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Domestic_Groundwater",</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V3",</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" t="s">
+        <v>266</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Environmental_Groundwater",</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V4",</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Industrial_Groundwater",</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V5",</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Irrigation_Groundwater",</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V6",</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Mining and Milling_Groundwater",</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V7",</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Municipal_Groundwater",</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V8",</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Power_Groundwater",</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V9",</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" t="s">
+        <v>272</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Quasi-Municipal_Groundwater",</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V10",</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Recreational_Groundwater",</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V11",</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Stockwater_Groundwater",</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V12",</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" t="s">
+        <v>275</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Unspecified_Groundwater",</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V13",</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>290</v>
+      </c>
+      <c r="F15" t="s">
+        <v>276</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>"Withdrawal_Annual_Wildlife_Groundwater",</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>"NVag_V14",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="114"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="114"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="114"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="114"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="114"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E15">
+    <sortCondition ref="E2:E15"/>
+  </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Nevada/AggregatedAmounts/NV_Aggregated Schema Mapping to WaDE_QA.xlsx
+++ b/Nevada/AggregatedAmounts/NV_Aggregated Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Nevada\AggregatedAmounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA5A2D4-229B-49F9-801C-5E7E93128D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2293B0A2-7907-419E-9FF6-CF757EB10B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="12120" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="297">
   <si>
     <t>Name</t>
   </si>
@@ -955,6 +955,9 @@
   <si>
     <t>Annual</t>
   </si>
+  <si>
+    <t>Issue of the county data has not working native id to attach to shapefile.  Will cheat for now and use temp id made with county value.</t>
+  </si>
 </sst>
 </file>
 
@@ -1350,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1469,22 +1472,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1502,7 +1496,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,43 +1517,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1578,10 +1542,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1628,9 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2005,20 +1963,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="84" t="s">
         <v>210</v>
       </c>
       <c r="B1" t="s">
@@ -2026,7 +1984,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="84" t="s">
         <v>211</v>
       </c>
       <c r="B2" t="s">
@@ -2034,58 +1992,60 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="84" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="88" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="103"/>
-      <c r="C7" s="102"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="87"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="102"/>
+      <c r="C8" s="87"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" s="87"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="99"/>
-      <c r="C21" s="101"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2117,10 +2077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2133,7 +2093,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2165,22 +2125,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="68" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>11</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2200,19 +2160,19 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="70" t="s">
         <v>292</v>
       </c>
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="71" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>105</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2229,13 +2189,13 @@
       <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -2244,7 +2204,7 @@
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="83" t="s">
+      <c r="I5" s="69" t="s">
         <v>107</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2264,10 +2224,10 @@
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -2276,7 +2236,7 @@
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="87">
+      <c r="I6" s="73">
         <v>0.5</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2296,10 +2256,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -2308,7 +2268,7 @@
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="72" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2325,13 +2285,13 @@
       <c r="C8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -2340,7 +2300,7 @@
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="86" t="s">
+      <c r="I8" s="72" t="s">
         <v>114</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2363,7 +2323,7 @@
       <c r="E9" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -2393,7 +2353,7 @@
       <c r="E10" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -2402,7 +2362,7 @@
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="69" t="s">
         <v>120</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2422,10 +2382,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -2434,7 +2394,7 @@
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="69" t="s">
         <v>123</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2451,13 +2411,13 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -2466,7 +2426,7 @@
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="69" t="s">
         <v>126</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2489,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5623B452-6320-41F9-A4C3-771E435FA050}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2525,7 +2485,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2557,16 +2517,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="88"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>16</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -2586,15 +2546,15 @@
       <c r="D4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="34"/>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>128</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -2618,11 +2578,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="26"/>
-      <c r="G5" s="95"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="83">
+      <c r="I5" s="69">
         <v>1</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -2639,18 +2599,18 @@
       <c r="C6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="28" t="s">
         <v>295</v>
       </c>
       <c r="F6" s="26"/>
-      <c r="G6" s="95"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="83" t="s">
+      <c r="I6" s="69" t="s">
         <v>133</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -2667,18 +2627,18 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="28" t="s">
         <v>217</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="95"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="69" t="s">
         <v>136</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -2695,18 +2655,18 @@
       <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="95"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="69" t="s">
         <v>139</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -2723,18 +2683,18 @@
       <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="95"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="69" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -2754,15 +2714,15 @@
       <c r="D10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="83">
         <v>1</v>
       </c>
       <c r="F10" s="26"/>
-      <c r="G10" s="95"/>
+      <c r="G10" s="80"/>
       <c r="H10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83">
+      <c r="I10" s="69">
         <v>10</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -2779,18 +2739,18 @@
       <c r="C11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>218</v>
       </c>
       <c r="F11" s="26"/>
-      <c r="G11" s="95"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="69" t="s">
         <v>148</v>
       </c>
       <c r="J11" s="17" t="s">
@@ -2807,18 +2767,18 @@
       <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>236</v>
       </c>
       <c r="F12" s="26"/>
-      <c r="G12" s="95"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="69" t="s">
         <v>151</v>
       </c>
       <c r="J12" s="17" t="s">
@@ -2835,18 +2795,18 @@
       <c r="C13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="98" t="s">
         <v>291</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="95"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="69" t="s">
         <v>154</v>
       </c>
       <c r="J13" s="17" t="s">
@@ -2902,7 +2862,7 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="66" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2934,16 +2894,16 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="76" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="24" t="s">
@@ -2973,7 +2933,7 @@
         <v>294</v>
       </c>
       <c r="F4" s="33"/>
-      <c r="G4" s="85"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="24" t="s">
         <v>11</v>
       </c>
@@ -2997,10 +2957,10 @@
       <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="35"/>
       <c r="H5" s="24" t="s">
         <v>11</v>
@@ -3028,7 +2988,7 @@
       <c r="E6" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="35"/>
       <c r="H6" s="24" t="s">
         <v>11</v>
@@ -3053,10 +3013,10 @@
       <c r="D7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="35"/>
       <c r="H7" s="24" t="s">
         <v>11</v>
@@ -3084,7 +3044,7 @@
       <c r="E8" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="35"/>
       <c r="H8" s="24" t="s">
         <v>11</v>
@@ -3109,10 +3069,10 @@
       <c r="D9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="35"/>
       <c r="H9" s="24" t="s">
         <v>11</v>
@@ -3140,7 +3100,7 @@
       <c r="E10" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="35"/>
       <c r="H10" s="24" t="s">
         <v>11</v>
@@ -3165,10 +3125,10 @@
       <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="35"/>
       <c r="H11" s="24" t="s">
         <v>11</v>
@@ -3196,7 +3156,7 @@
       <c r="E12" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="35"/>
       <c r="H12" s="24" t="s">
         <v>11</v>
@@ -3318,22 +3278,22 @@
       <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="83">
+      <c r="I3" s="69">
         <v>34658</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -3359,13 +3319,13 @@
       <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="69" t="s">
         <v>181</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -3388,16 +3348,16 @@
       <c r="E5" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="72" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="17" t="s">
@@ -3420,16 +3380,16 @@
       <c r="E6" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="72" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="17" t="s">
@@ -3446,22 +3406,22 @@
       <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="69" t="s">
         <v>186</v>
       </c>
       <c r="J7" s="17" t="s">
@@ -3484,16 +3444,16 @@
       <c r="E8" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="69" t="s">
         <v>189</v>
       </c>
       <c r="J8" s="17" t="s">
@@ -3516,16 +3476,16 @@
       <c r="E9" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="83">
+      <c r="I9" s="69">
         <v>17839</v>
       </c>
       <c r="J9" s="17" t="s">
@@ -3548,16 +3508,16 @@
       <c r="E10" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="72" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="69" t="s">
         <v>107</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -3586,7 +3546,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E3782C-18A9-45D3-B018-D5B7F7291E9F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
@@ -3607,14 +3567,14 @@
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3646,17 +3606,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -3668,17 +3628,17 @@
       <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="73" t="s">
+      <c r="I3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="58" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -3696,19 +3656,17 @@
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="94" t="s">
+      <c r="H4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>64</v>
       </c>
@@ -3719,24 +3677,22 @@
         <v>29</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="110"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="61" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>66</v>
       </c>
@@ -3750,21 +3706,19 @@
       <c r="E6" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="95" t="s">
         <v>220</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="76"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>52</v>
       </c>
@@ -3781,22 +3735,20 @@
       <c r="F7" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G7" s="107" t="s">
+      <c r="G7" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="H7" s="94" t="s">
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="59" t="s">
         <v>98</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-    </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -3813,22 +3765,20 @@
       <c r="F8" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="92" t="s">
         <v>256</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="H8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="72">
+      <c r="I8" s="59">
         <v>48001</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
@@ -3842,21 +3792,19 @@
       <c r="E9" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="110"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>54</v>
       </c>
@@ -3870,21 +3818,19 @@
       <c r="E10" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="110"/>
+      <c r="F10" s="95"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="94" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>56</v>
       </c>
@@ -3898,21 +3844,19 @@
       <c r="E11" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="110"/>
+      <c r="F11" s="95"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="94" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="75" t="s">
+      <c r="I11" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>62</v>
       </c>
@@ -3926,100 +3870,63 @@
       <c r="E12" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="94" t="s">
+      <c r="H12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="59" t="s">
         <v>101</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J13" s="45"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J14" s="45"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J15" s="45"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J16" s="45"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="42"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" s="23"/>
       <c r="D20" s="2"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C21" s="23"/>
       <c r="D21" s="2"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" s="23"/>
       <c r="D22" s="2"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="23"/>
       <c r="D23" s="2"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C24" s="23"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" s="23"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" s="23"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" s="23"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" s="23"/>
       <c r="D28" s="2"/>
     </row>
@@ -4056,32 +3963,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="54" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -4095,16 +4002,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="55" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="14"/>
@@ -4116,21 +4023,21 @@
       <c r="I3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="19"/>
@@ -4142,21 +4049,21 @@
       <c r="I4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="47" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="19"/>
@@ -4168,21 +4075,21 @@
       <c r="I5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="47" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="19"/>
@@ -4194,21 +4101,21 @@
       <c r="I6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="19"/>
@@ -4220,21 +4127,21 @@
       <c r="I7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="47" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="19"/>
@@ -4246,27 +4153,27 @@
       <c r="I8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="47" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="39"/>
       <c r="H9" s="16" t="s">
         <v>11</v>
@@ -4280,19 +4187,19 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="90" t="s">
         <v>294</v>
       </c>
       <c r="F10" s="11"/>
@@ -4309,16 +4216,16 @@
       <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="26" t="s">
@@ -4336,19 +4243,19 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="89" t="s">
         <v>293</v>
       </c>
       <c r="F12" s="36"/>
@@ -4365,23 +4272,23 @@
       <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="44" t="s">
         <v>223</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="16" t="s">
         <v>11</v>
       </c>
@@ -4420,7 +4327,7 @@
       <c r="I14" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -4435,18 +4342,18 @@
       <c r="D15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="96" t="s">
         <v>260</v>
       </c>
       <c r="F15" s="21"/>
-      <c r="G15" s="49"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="27">
         <v>125483.1563</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="47" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4463,7 +4370,7 @@
       <c r="D16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="96" t="s">
         <v>261</v>
       </c>
       <c r="F16" s="21"/>
@@ -4472,7 +4379,7 @@
       <c r="I16" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="47" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4504,7 +4411,7 @@
       <c r="I17" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="47" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4518,7 +4425,7 @@
       <c r="C18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -4536,7 +4443,7 @@
       <c r="I18" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="47" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4550,7 +4457,7 @@
       <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -4568,7 +4475,7 @@
       <c r="I19" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="47" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4582,10 +4489,10 @@
       <c r="C20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="82">
         <v>44329</v>
       </c>
       <c r="F20" s="24" t="s">
@@ -4600,7 +4507,7 @@
       <c r="I20" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="47" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4614,7 +4521,7 @@
       <c r="C21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -4632,7 +4539,7 @@
       <c r="I21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4664,7 +4571,7 @@
       <c r="I22" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="47" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4696,7 +4603,7 @@
       <c r="I23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="47" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4728,7 +4635,7 @@
       <c r="I24" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="47" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4742,7 +4649,7 @@
       <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -4760,7 +4667,7 @@
       <c r="I25" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4792,7 +4699,7 @@
       <c r="I26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4824,7 +4731,7 @@
       <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="47" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4838,7 +4745,7 @@
       <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -4856,7 +4763,7 @@
       <c r="I28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="50"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -4868,7 +4775,7 @@
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="24" t="s">
@@ -4886,7 +4793,7 @@
       <c r="I29" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="47" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4900,7 +4807,7 @@
       <c r="C30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -4918,7 +4825,7 @@
       <c r="I30" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="47" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4932,7 +4839,7 @@
       <c r="C31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="46" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="24" t="s">
@@ -4950,7 +4857,7 @@
       <c r="I31" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="47" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4964,10 +4871,10 @@
       <c r="C32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="108" t="s">
+      <c r="E32" s="93" t="s">
         <v>225</v>
       </c>
       <c r="F32" s="24" t="s">
@@ -4982,7 +4889,7 @@
       <c r="I32" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="47" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4996,10 +4903,10 @@
       <c r="C33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="108" t="s">
+      <c r="E33" s="93" t="s">
         <v>224</v>
       </c>
       <c r="F33" s="24" t="s">
@@ -5014,25 +4921,25 @@
       <c r="I33" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I34" s="27"/>
-      <c r="J34" s="50"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I35" s="27"/>
-      <c r="J35" s="50"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I36" s="27"/>
-      <c r="J36" s="50"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I37" s="27"/>
-      <c r="J37" s="50"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I38" s="27"/>
@@ -5064,7 +4971,7 @@
     <row r="51" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51" s="2"/>
-      <c r="D51" s="46"/>
+      <c r="D51" s="43"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52"/>
@@ -5112,12 +5019,12 @@
     <row r="66" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66" s="2"/>
-      <c r="D66" s="46"/>
+      <c r="D66" s="43"/>
     </row>
     <row r="67" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67" s="2"/>
-      <c r="D67" s="46"/>
+      <c r="D67" s="43"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68"/>
@@ -54566,46 +54473,46 @@
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="114"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="114"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="114"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="114"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E15">
